--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>8</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t xml:space="preserve">Task Name </t>
   </si>
@@ -36,37 +36,49 @@
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Responsible</t>
   </si>
   <si>
     <t>Incomplete</t>
   </si>
   <si>
-    <t>Registration</t>
-  </si>
-  <si>
     <t>Sprint 2</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint 3 </t>
   </si>
   <si>
-    <t>Add New Patient</t>
-  </si>
-  <si>
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Billing</t>
-  </si>
-  <si>
     <t>Sprint 5</t>
   </si>
   <si>
-    <t>Accessing existing records</t>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Creating a login page</t>
+  </si>
+  <si>
+    <t>Creating a registration screen</t>
+  </si>
+  <si>
+    <t>Creating a screen for adding new patient</t>
+  </si>
+  <si>
+    <t>Creating a method for providing available time slots for new appointment</t>
+  </si>
+  <si>
+    <t>Creating a screen for billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a method for notifying scheduled appointments </t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Creating a screen for checking/editing existing records</t>
   </si>
 </sst>
 </file>
@@ -405,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -424,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -444,10 +456,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -455,13 +467,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -469,13 +481,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -483,13 +495,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -497,16 +509,44 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
